--- a/Federated Electric Market/result_excel/test_loss/frac/frac=0.1.xlsx
+++ b/Federated Electric Market/result_excel/test_loss/frac/frac=0.1.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.455844001339629</v>
+        <v>2.199004416055066</v>
       </c>
       <c r="C2" t="n">
-        <v>1.13095468589366</v>
+        <v>1.090197981615208</v>
       </c>
       <c r="D2" t="n">
-        <v>1.567113270105141</v>
+        <v>1.482904048161939</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.160872681052272</v>
+        <v>1.987753934829035</v>
       </c>
       <c r="C3" t="n">
-        <v>1.07391452609536</v>
+        <v>1.027779845728002</v>
       </c>
       <c r="D3" t="n">
-        <v>1.46999070781154</v>
+        <v>1.409877276513468</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.330227974786573</v>
+        <v>1.308335475595271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9164057313602636</v>
+        <v>0.8991688062020874</v>
       </c>
       <c r="D4" t="n">
-        <v>1.153355094837047</v>
+        <v>1.143824932231883</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7466110638424449</v>
+        <v>0.7078580664222434</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6615363299584758</v>
+        <v>0.6578672630167087</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8640665853060427</v>
+        <v>0.8413430135338639</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5250620075040234</v>
+        <v>0.4929488829428532</v>
       </c>
       <c r="C6" t="n">
-        <v>0.561654861920271</v>
+        <v>0.5354851007566971</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7246116252890396</v>
+        <v>0.702103185395746</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8353275618884997</v>
+        <v>0.8240762064355021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7023368135036178</v>
+        <v>0.6998435560604784</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9139625604413453</v>
+        <v>0.9077864321719631</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.03123161665077</v>
+        <v>0.9485181230072138</v>
       </c>
       <c r="C8" t="n">
-        <v>0.716140793758131</v>
+        <v>0.6900148664556434</v>
       </c>
       <c r="D8" t="n">
-        <v>1.015495749203693</v>
+        <v>0.9739189509436675</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9040720253911041</v>
+        <v>0.8993246223086624</v>
       </c>
       <c r="C9" t="n">
-        <v>0.743724763472055</v>
+        <v>0.7577736925676377</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9508270218031796</v>
+        <v>0.9483272759489006</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8551531564760524</v>
+        <v>0.8722064136823834</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7265045445983278</v>
+        <v>0.7172979874053796</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9247449142742297</v>
+        <v>0.9339199182383805</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7053690272688626</v>
+        <v>0.8435164630613456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6786633481716261</v>
+        <v>0.7468629506369827</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8398625049785605</v>
+        <v>0.9184315233382103</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9199224157787123</v>
+        <v>0.9400846718414345</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7107658987865427</v>
+        <v>0.7116384700131185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9591258602387448</v>
+        <v>0.9695796366680947</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6886384306124105</v>
+        <v>0.7835580114364696</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6695844461227985</v>
+        <v>0.7487650204199318</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8298424131197504</v>
+        <v>0.8851881220602035</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7749101673638179</v>
+        <v>0.7570399849814003</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7154684633820463</v>
+        <v>0.7096178125998632</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8802898200955285</v>
+        <v>0.8700804474193179</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9072655414341125</v>
+        <v>2.161107163642254</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7603580085633439</v>
+        <v>1.284512588397474</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9525048773807473</v>
+        <v>1.47007046213515</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.812142858951353</v>
+        <v>0.7641506384795335</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7139120910064849</v>
+        <v>0.6941807909311503</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9011896908816439</v>
+        <v>0.8741571017154374</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.372446564144372</v>
+        <v>0.3880754154504278</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4801667729945081</v>
+        <v>0.4898503884461557</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6102840028579908</v>
+        <v>0.6229569932591076</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7829453833010149</v>
+        <v>0.7343516542090752</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6823645068983797</v>
+        <v>0.6612124487463336</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8848420103617453</v>
+        <v>0.8569432036074942</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.815285499649394</v>
+        <v>0.7786510689720667</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6995596415353433</v>
+        <v>0.68266882207199</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9029316140491449</v>
+        <v>0.8824120743575909</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5636374353739856</v>
+        <v>0.5222656556808618</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5764085304857978</v>
+        <v>0.5649953540201691</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7507579073003398</v>
+        <v>0.7226794972052699</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.559512794781758</v>
+        <v>0.5050985090764643</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5817866914946411</v>
+        <v>0.5691722114036522</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7480058788417093</v>
+        <v>0.7107028275421903</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5794894751610239</v>
+        <v>0.5487376295679962</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5957590571134161</v>
+        <v>0.5814197303240931</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7612420608197</v>
+        <v>0.740768269817219</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3185016711115505</v>
+        <v>0.3047832976083477</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4313140049269387</v>
+        <v>0.4291884317413528</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5643595229209396</v>
+        <v>0.5520718228712164</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7061431180576639</v>
+        <v>0.755065971858798</v>
       </c>
       <c r="C24" t="n">
-        <v>0.660635166695665</v>
+        <v>0.6888337989973478</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8403232223720013</v>
+        <v>0.8689453215587262</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6195812041111426</v>
+        <v>1.394226477679203</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6434756063767284</v>
+        <v>1.028965509401664</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7871348068222765</v>
+        <v>1.180773677585677</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9417110206192425</v>
+        <v>1.119146047301331</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7742183020994112</v>
+        <v>0.8860637550905002</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9704179618181242</v>
+        <v>1.057896992765047</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.937100606799638</v>
+        <v>0.8580112964179417</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7821722370702623</v>
+        <v>0.7444158451343402</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9680395688191873</v>
+        <v>0.9262889918475452</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.419152757629561</v>
+        <v>0.6386116538450528</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5141788886157915</v>
+        <v>0.6984114521810274</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6474200781791997</v>
+        <v>0.7991318125597634</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6342158696209296</v>
+        <v>0.6394064407027987</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6097790797385981</v>
+        <v>0.6116090438809163</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7963767133843942</v>
+        <v>0.7996289393855119</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6545278158759068</v>
+        <v>0.6157935980811359</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5982022521793763</v>
+        <v>0.5833093358729848</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8090289338929151</v>
+        <v>0.784725173599736</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8350557392933292</v>
+        <v>0.8052727671402882</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6963568845537558</v>
+        <v>0.6992076496909611</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9138138428002331</v>
+        <v>0.8973699165563153</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8180970249428993</v>
+        <v>0.9631356274641871</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7250904770341956</v>
+        <v>0.8274873003862562</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9044871612924638</v>
+        <v>0.9813947358041957</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.662438780226977</v>
+        <v>1.519125880572054</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6254556845328672</v>
+        <v>1.085152495852537</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8139034219285338</v>
+        <v>1.232528247372876</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5601560260098908</v>
+        <v>0.6199962911380287</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5335699969535118</v>
+        <v>0.5810805756384284</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7484357193573078</v>
+        <v>0.787398432267952</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.450167535756774</v>
+        <v>1.193411211688332</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9297431927865822</v>
+        <v>0.8247913443683988</v>
       </c>
       <c r="D35" t="n">
-        <v>1.204229021306485</v>
+        <v>1.092433618893309</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8261518383280605</v>
+        <v>0.770081544666979</v>
       </c>
       <c r="C36" t="n">
-        <v>0.741402965377352</v>
+        <v>0.7185347110419094</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9089289511991906</v>
+        <v>0.8775429018953882</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6346746019492179</v>
+        <v>1.088907081732633</v>
       </c>
       <c r="C37" t="n">
-        <v>0.612445282515223</v>
+        <v>0.8928490779240993</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7966646734663323</v>
+        <v>1.04350710669963</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5713466825461644</v>
+        <v>0.7474329815924348</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5714202912203138</v>
+        <v>0.6746818440382107</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7558747796733031</v>
+        <v>0.8645420646749554</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5844565466209042</v>
+        <v>0.5859555498779536</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5714086378817789</v>
+        <v>0.5996463108731782</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7644975779038834</v>
+        <v>0.7654773346598537</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9725944689163756</v>
+        <v>0.907817846890751</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7811493898215648</v>
+        <v>0.7416153652801757</v>
       </c>
       <c r="D40" t="n">
-        <v>0.986202042644597</v>
+        <v>0.9527947559106058</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4508269589062039</v>
+        <v>0.4150634768971986</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5301213920517232</v>
+        <v>0.5135681144488887</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6714364891083922</v>
+        <v>0.6442542020795818</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5705787874314723</v>
+        <v>0.5742372345612345</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5809989807127582</v>
+        <v>0.6015592277597197</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7553666576117007</v>
+        <v>0.75778442486055</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.214042619094937</v>
+        <v>1.098384562731</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7585887307447087</v>
+        <v>0.7319902976525435</v>
       </c>
       <c r="D43" t="n">
-        <v>1.101836021872101</v>
+        <v>1.048038435712641</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4363354954004501</v>
+        <v>0.406517990988767</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5087503230224008</v>
+        <v>0.4963974124280918</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6605569584831047</v>
+        <v>0.637587633967886</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4336913541307105</v>
+        <v>0.4228417660547171</v>
       </c>
       <c r="C45" t="n">
-        <v>0.518913695977319</v>
+        <v>0.5120917701679412</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6585524687758072</v>
+        <v>0.6502628438214174</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4695890157489763</v>
+        <v>0.4774318792342365</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5488060517661993</v>
+        <v>0.5541700305097409</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6852656534140438</v>
+        <v>0.6909644558399777</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.489379455513939</v>
+        <v>0.4332875112557664</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5585581002426317</v>
+        <v>0.5263160912702193</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6995566135159749</v>
+        <v>0.6582457833178776</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2655641282801115</v>
+        <v>0.2692448192212316</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3937422952935309</v>
+        <v>0.3959738076219292</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5153291455760207</v>
+        <v>0.5188880603957192</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4347545717865727</v>
+        <v>0.4215110808728594</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5312244193720669</v>
+        <v>0.5221014770962019</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6593592130140995</v>
+        <v>0.6492388473226625</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4340108254351545</v>
+        <v>0.4339739550964965</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4973737473109236</v>
+        <v>0.5043104072482519</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6587949798193323</v>
+        <v>0.6587669960589225</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3108462425806797</v>
+        <v>0.3194652641181178</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4515695964086872</v>
+        <v>0.4656537806104222</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5575358666316272</v>
+        <v>0.565212583120827</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4157052729900219</v>
+        <v>0.4183844573016579</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5009689645129302</v>
+        <v>0.500142194400423</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6447521019663464</v>
+        <v>0.6468264506818331</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.403819870491654</v>
+        <v>0.4228861444569615</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5027016272064628</v>
+        <v>0.5200121624513689</v>
       </c>
       <c r="D53" t="n">
-        <v>0.635468229333028</v>
+        <v>0.6502969663599558</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2630279949481333</v>
+        <v>0.3162082799023456</v>
       </c>
       <c r="C54" t="n">
-        <v>0.418347307253034</v>
+        <v>0.4677258029663625</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5128625497617596</v>
+        <v>0.5623239990453418</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5265367285252976</v>
+        <v>0.4998095644976553</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5577586547208517</v>
+        <v>0.540408379320209</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7256285058659822</v>
+        <v>0.7069721101271643</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3800460951843496</v>
+        <v>0.4057521250759462</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4869877450041216</v>
+        <v>0.5031438514982205</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6164787872947046</v>
+        <v>0.6369867542390079</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2300988711580278</v>
+        <v>0.2163044937601896</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3813688349569566</v>
+        <v>0.3733305825285546</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4796862215636674</v>
+        <v>0.4650854693066529</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3894341319674168</v>
+        <v>0.4004533449413075</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4781393413886868</v>
+        <v>0.50242390600653</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6240465783636802</v>
+        <v>0.6328138311867935</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9213616728540863</v>
+        <v>0.8158796306368193</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7398489398853295</v>
+        <v>0.6872348014142486</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9598758632521637</v>
+        <v>0.9032605552313349</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6476161721663434</v>
+        <v>0.6552821219764983</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6251151586962416</v>
+        <v>0.6299698648876898</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8047460296058275</v>
+        <v>0.8094949795869634</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3867730207680743</v>
+        <v>0.3747444008715463</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4526767044649047</v>
+        <v>0.449501569926781</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6219107820001791</v>
+        <v>0.612163704307554</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8169694180032603</v>
+        <v>0.7657406510272818</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7122236184420953</v>
+        <v>0.6906159413720281</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9038636058627764</v>
+        <v>0.8750660838058357</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5551983947040178</v>
+        <v>0.9421113934370525</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6233023701176084</v>
+        <v>0.8572885102542921</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7451163631970632</v>
+        <v>0.970624228750268</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3678414503872646</v>
+        <v>0.3558132829640617</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4649887236486874</v>
+        <v>0.463349109840121</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6064993407970569</v>
+        <v>0.5965008658535725</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6666436963316841</v>
+        <v>0.6445765712561432</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6493348883233979</v>
+        <v>0.6411356804547546</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8164825144065757</v>
+        <v>0.8028552617104425</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3297839746302735</v>
+        <v>0.3154308512149515</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4365290675621794</v>
+        <v>0.4332773557659433</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5742682079222857</v>
+        <v>0.5616323096252134</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5158883946889546</v>
+        <v>0.4971434015413149</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5463557538882036</v>
+        <v>0.548395231355429</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7182537119214593</v>
+        <v>0.7050839677239263</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.289624968611174</v>
+        <v>1.274652860588172</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8655743331532871</v>
+        <v>0.8735822777015224</v>
       </c>
       <c r="D68" t="n">
-        <v>1.135616558795782</v>
+        <v>1.129005252684048</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7519284586417733</v>
+        <v>0.7170373184171414</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6147110851919044</v>
+        <v>0.6123741620035308</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8671380851062725</v>
+        <v>0.8467805609584701</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.053667066702393</v>
+        <v>0.9857710504950884</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7477733497785105</v>
+        <v>0.7279593955332672</v>
       </c>
       <c r="D70" t="n">
-        <v>1.026482862352018</v>
+        <v>0.9928600357024591</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6496854870750307</v>
+        <v>0.6261879154410104</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6365183906209452</v>
+        <v>0.6235339750499284</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8060306985934411</v>
+        <v>0.7913203620791078</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2663519788181563</v>
+        <v>0.2653334010468557</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3968297723286892</v>
+        <v>0.3938075113645273</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5160929943509758</v>
+        <v>0.5151052329833737</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4158254304380598</v>
+        <v>0.4004060253580999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.50214432220356</v>
+        <v>0.4947230561495183</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6448452763555454</v>
+        <v>0.6327764418482249</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5537452027140678</v>
+        <v>0.5228059685848133</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5875010434340887</v>
+        <v>0.5734247837798603</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7441405799404222</v>
+        <v>0.7230532266609515</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5895055013841085</v>
+        <v>0.6417513639877742</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6188024973175859</v>
+        <v>0.6644302280927681</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7677926161302338</v>
+        <v>0.8010938546685864</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4800256159098286</v>
+        <v>0.5065179506417502</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5531345658941614</v>
+        <v>0.5738585064506437</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6928388094714589</v>
+        <v>0.7117007451462659</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3494326411321835</v>
+        <v>0.3901076488574226</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4840557187269692</v>
+        <v>0.5112060835215434</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5911282780684608</v>
+        <v>0.6245859819571862</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5459838734222746</v>
+        <v>0.4827311561737958</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5574478630050911</v>
+        <v>0.5283938271411992</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7389072157059198</v>
+        <v>0.6947885694035242</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7909078858023703</v>
+        <v>0.8226814517108381</v>
       </c>
       <c r="C79" t="n">
-        <v>0.704641308045284</v>
+        <v>0.7582169178418301</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8893300207472872</v>
+        <v>0.9070178894105883</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.281518831772524</v>
+        <v>0.2807943416243355</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4082566682068908</v>
+        <v>0.4193456982994098</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5305834823781493</v>
+        <v>0.5299003129120943</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6605862564298342</v>
+        <v>0.6290666644425428</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6017792897681699</v>
+        <v>0.5873828668441052</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8127645762641443</v>
+        <v>0.7931372292627189</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6711673905483916</v>
+        <v>0.6708551580595483</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6485288967424768</v>
+        <v>0.6756666848671314</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8192480641102495</v>
+        <v>0.8190574815356663</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6436987081110701</v>
+        <v>0.7556701610999549</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6592569099360474</v>
+        <v>0.7141743886868891</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8023083622342909</v>
+        <v>0.8692929086907099</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.580761603991815</v>
+        <v>1.025188208198055</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6365400089389766</v>
+        <v>0.8525555233098595</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7620771640666154</v>
+        <v>1.012515781703206</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.442917758134987</v>
+        <v>0.41624807686551</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5347055463700036</v>
+        <v>0.5140716068323519</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6655206669480573</v>
+        <v>0.6451729046275192</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7509691367198816</v>
+        <v>0.7621374963492492</v>
       </c>
       <c r="C86" t="n">
-        <v>0.637320661907023</v>
+        <v>0.6551459917243687</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8665847544931088</v>
+        <v>0.8730048661658475</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5079980398043812</v>
+        <v>0.7814850755816577</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5663887341826317</v>
+        <v>0.7445723340860851</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7127398121365055</v>
+        <v>0.88401644531177</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4935435769506767</v>
+        <v>0.9270583677662377</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5746897674693463</v>
+        <v>0.8345954731948715</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7025265667223388</v>
+        <v>0.9628387028813485</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3940132626481674</v>
+        <v>0.3657499695447367</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5075061606270496</v>
+        <v>0.4954983705451541</v>
       </c>
       <c r="D89" t="n">
-        <v>0.62770475754782</v>
+        <v>0.6047726593892424</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3731233132995019</v>
+        <v>0.3554879719052894</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4913776656670193</v>
+        <v>0.4939238042800418</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6108382055008527</v>
+        <v>0.5962281206931532</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9852434996561464</v>
+        <v>0.8096503479052952</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7484994082855791</v>
+        <v>0.6562301648769008</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9925943278379876</v>
+        <v>0.8998057278686856</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3212292124620461</v>
+        <v>0.3959096192878071</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4365466945588228</v>
+        <v>0.5215509162622112</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5667708641612111</v>
+        <v>0.6292134926142375</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.289082512465666</v>
+        <v>0.493484122644447</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4390389213108548</v>
+        <v>0.6071382611476385</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5376639400830838</v>
+        <v>0.7024842508159503</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1381845769269789</v>
+        <v>0.136369115003793</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2877426765406638</v>
+        <v>0.2947053271522376</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3717318615978175</v>
+        <v>0.3692818909773304</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2207956888471952</v>
+        <v>0.2080018530011224</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3716346949597415</v>
+        <v>0.3608356978937723</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4698890175852116</v>
+        <v>0.4560722015219985</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3104311823350095</v>
+        <v>0.7475120981050992</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4593446198632688</v>
+        <v>0.7665333768296069</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5571635148993602</v>
+        <v>0.8645878197760475</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4069619786888676</v>
+        <v>0.435005083742122</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5296542054176547</v>
+        <v>0.5414327404096131</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6379357167370923</v>
+        <v>0.6595491518773426</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2013483036798623</v>
+        <v>0.1936409221655103</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3590742892869428</v>
+        <v>0.3623927310856223</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4487185127447522</v>
+        <v>0.4400465000037045</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5518145413990051</v>
+        <v>0.5036992116178408</v>
       </c>
       <c r="C99" t="n">
-        <v>0.55455221973878</v>
+        <v>0.5290359638512564</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7428422049123253</v>
+        <v>0.7097176985378347</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2513340871165434</v>
+        <v>0.2495146504697088</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3991841962367351</v>
+        <v>0.4049696713835003</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5013323120611153</v>
+        <v>0.4995144146766025</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1792009713874229</v>
+        <v>0.1677867409956505</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3301344371897035</v>
+        <v>0.3216873170555555</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4233213571123277</v>
+        <v>0.4096177986802459</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3969987989703063</v>
+        <v>0.3981822264933589</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4707576014416899</v>
+        <v>0.4705493959047855</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6300784070021018</v>
+        <v>0.6310168195011595</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3306781718993593</v>
+        <v>0.3875790669561257</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4630975475921599</v>
+        <v>0.5080534499405343</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5750462345754116</v>
+        <v>0.6225584847675965</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1771578954450587</v>
+        <v>0.2046190594620764</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3452104337675161</v>
+        <v>0.3590238221590797</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4209012894314518</v>
+        <v>0.4523483828445465</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3146498859897891</v>
+        <v>0.4432607936805942</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4578858513223891</v>
+        <v>0.5646730873402538</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5609366149484174</v>
+        <v>0.6657783367462433</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9359650503826845</v>
+        <v>0.8987250193725731</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7716065883072367</v>
+        <v>0.7471833298578077</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9674528672667648</v>
+        <v>0.9480110861021473</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3109830052160185</v>
+        <v>0.269387331780122</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4354558107832804</v>
+        <v>0.4056503445022065</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5576585023255886</v>
+        <v>0.5190253671836493</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1571068624100361</v>
+        <v>0.1452674152824182</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3092585746615871</v>
+        <v>0.2928489703022533</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3963670803813507</v>
+        <v>0.3811396270166856</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3408254221186076</v>
+        <v>0.3272319455042473</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4604287751802721</v>
+        <v>0.4526110228946049</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5838025540528301</v>
+        <v>0.5720419088705366</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.2058914022460855</v>
+        <v>0.1914227095364329</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3415201494774986</v>
+        <v>0.3327691856899359</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4537525782252763</v>
+        <v>0.4375188104943979</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2663484464112102</v>
+        <v>0.27024975082039</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4150436988267935</v>
+        <v>0.4126132751249958</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5160895720814461</v>
+        <v>0.5198555095604835</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5311763044166546</v>
+        <v>0.5290738781349799</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5843497619723624</v>
+        <v>0.5965734766196756</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7288184303491883</v>
+        <v>0.7273746477125662</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.20607413670946</v>
+        <v>1.109244410291861</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8219007867257886</v>
+        <v>0.8106248747069257</v>
       </c>
       <c r="D113" t="n">
-        <v>1.098214066887444</v>
+        <v>1.053206727234431</v>
       </c>
     </row>
   </sheetData>
